--- a/documents/DHPortal - Test Cases.xlsx
+++ b/documents/DHPortal - Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="132">
   <si>
     <t>Scenario Id</t>
   </si>
@@ -387,6 +387,33 @@
   </si>
   <si>
     <t>Click on 'Save Variables (CSV)' and then choose the Private or Public Folder.</t>
+  </si>
+  <si>
+    <t>Data Sets</t>
+  </si>
+  <si>
+    <t>DS1 (saved as dh_users.sql)</t>
+  </si>
+  <si>
+    <t>DS1</t>
+  </si>
+  <si>
+    <t>DS2 (saved as meta-data.json)</t>
+  </si>
+  <si>
+    <t>DS2</t>
+  </si>
+  <si>
+    <t>DS3 (saved as variables.csv)</t>
+  </si>
+  <si>
+    <t>DS3</t>
+  </si>
+  <si>
+    <t>DS4 (Server data)</t>
+  </si>
+  <si>
+    <t>DS4</t>
   </si>
 </sst>
 </file>
@@ -745,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -826,24 +853,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="43.140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="21.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="41.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="43.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1">
+    <row r="1" spans="1:9" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -854,22 +881,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="45">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="45">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -880,22 +910,25 @@
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="60">
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="60">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -906,22 +939,25 @@
         <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="60">
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="60">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -932,22 +968,25 @@
         <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="45">
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="45">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -958,18 +997,21 @@
         <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -981,11 +1023,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -993,12 +1035,13 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="39.28515625" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1">
+    <row r="1" spans="1:9" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1008,23 +1051,26 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="75">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="75">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1035,39 +1081,45 @@
         <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="90">
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="90">
       <c r="D3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="75">
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="75">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1078,39 +1130,45 @@
         <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="60">
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="60">
       <c r="D5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="75">
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="75">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1121,35 +1179,41 @@
         <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" ht="75">
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="75">
       <c r="D7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1160,26 +1224,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="29.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="4" width="24.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="29.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="41.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1">
+    <row r="1" spans="1:9" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1190,22 +1254,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
+    <row r="2" spans="1:9" ht="45">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1216,39 +1283,45 @@
         <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="60">
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60">
       <c r="D3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30">
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1259,39 +1332,45 @@
         <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="45">
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45">
       <c r="D5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="60">
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1302,56 +1381,65 @@
         <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="60">
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60">
       <c r="D7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="45">
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45">
       <c r="D8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45">
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1362,69 +1450,81 @@
         <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30">
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30">
       <c r="D10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="60">
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60">
       <c r="D11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="60">
+      <c r="I11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60">
       <c r="D12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1436,26 +1536,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="4" width="24.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="41.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1">
+    <row r="1" spans="1:9" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1466,22 +1566,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60">
+    <row r="2" spans="1:9" ht="60">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1492,90 +1595,105 @@
         <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30">
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30">
       <c r="D3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45">
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45">
       <c r="D4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="75">
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75">
       <c r="D5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="60">
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60">
       <c r="D6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>113</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30">
+        <v>113</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1586,52 +1704,61 @@
         <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="75">
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75">
       <c r="D8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="60">
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60">
       <c r="D9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/documents/DHPortal - Test Cases.xlsx
+++ b/documents/DHPortal - Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Test Cases for S002" sheetId="3" r:id="rId3"/>
     <sheet name="Test Cases for S003" sheetId="4" r:id="rId4"/>
     <sheet name="Test Cases for S004" sheetId="5" r:id="rId5"/>
+    <sheet name="Test Cases for S005" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="152">
   <si>
     <t>Scenario Id</t>
   </si>
@@ -414,6 +415,66 @@
   </si>
   <si>
     <t>DS4</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>Validate community members' correct handling</t>
+  </si>
+  <si>
+    <t>C014</t>
+  </si>
+  <si>
+    <t>Test add request</t>
+  </si>
+  <si>
+    <t>Click on the 'Friends' Tab.</t>
+  </si>
+  <si>
+    <t>The friends page (friends.php) should be loaded. The Community Field should include all of the logged_in user's friends.</t>
+  </si>
+  <si>
+    <t>When the page loads the Fieldset named 'My Community' shows up with all the members that the logged_in user has added before.</t>
+  </si>
+  <si>
+    <t>Step 2c</t>
+  </si>
+  <si>
+    <t>Write a username of an unregister user.</t>
+  </si>
+  <si>
+    <t>An alert box shows up to the user with the message:"The user with that username or e-mail does not exist."</t>
+  </si>
+  <si>
+    <t>If the inserted username or email doesn't exist in the users table of dh_users database the user will get an alert message.</t>
+  </si>
+  <si>
+    <t>Write a username of a registered user on the search bar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If there is not any request from this user, then a new request will be sent and a pair will be added to the friends table. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If there is a request from that user to the logged in one then that user will be added as a new member at the community field. </t>
+  </si>
+  <si>
+    <t>A message box is shown informing the user that the request has been sent.</t>
+  </si>
+  <si>
+    <t>The user that has sent a request before, is now added at 'My community" field.</t>
+  </si>
+  <si>
+    <t>Test remove friend</t>
+  </si>
+  <si>
+    <t>Click on the 'Unfriend' button of the user you wish to remove</t>
+  </si>
+  <si>
+    <t>The selected user will be removed from the community table.</t>
+  </si>
+  <si>
+    <t>The pairs of this friendship are removed and the users do not exist in each others' community field.</t>
   </si>
 </sst>
 </file>
@@ -772,9 +833,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -839,10 +900,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="7" spans="1:3">
       <c r="C7">
         <f>SUM(C2:C6)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -857,7 +929,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1026,8 +1098,8 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1227,8 +1299,8 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1538,9 +1610,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1765,4 +1837,191 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="8" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="45">
+      <c r="D3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="45">
+      <c r="D4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="45">
+      <c r="D5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="45">
+      <c r="D7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/DHPortal - Test Cases.xlsx
+++ b/documents/DHPortal - Test Cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="163">
   <si>
     <t>Scenario Id</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Step 2</t>
   </si>
   <si>
-    <t>Step 3</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -321,9 +318,6 @@
     <t xml:space="preserve">The circle packing and the variables that were stored in the nested JSON are shown on the upper panels. </t>
   </si>
   <si>
-    <t>Test CSV loading</t>
-  </si>
-  <si>
     <t>The harmonization page (harmonization.php) should be loaded. The circle packing is shown on the left side.</t>
   </si>
   <si>
@@ -333,9 +327,6 @@
     <t xml:space="preserve">The Circle packing that has been created so far is shown in the left side. </t>
   </si>
   <si>
-    <t>Test harmonized CSV</t>
-  </si>
-  <si>
     <t>Click on 'Load meta-data' from the navigation menu. Select either 'public' or 'private folder'.</t>
   </si>
   <si>
@@ -475,6 +466,48 @@
   </si>
   <si>
     <t>The pairs of this friendship are removed and the users do not exist in each others' community field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on 'Download Variables (CSV)' </t>
+  </si>
+  <si>
+    <t>The data will be saved as a CSV file on your default Download Folder on your pc.</t>
+  </si>
+  <si>
+    <t>The functions that are chosen for each variable will be transformed according to a standard, and the CSV will be saved in the pc.</t>
+  </si>
+  <si>
+    <t>Test harmonized CSV creation</t>
+  </si>
+  <si>
+    <t>Test CSV Loading</t>
+  </si>
+  <si>
+    <t>Test Harmonized CSV Loading</t>
+  </si>
+  <si>
+    <t>C015</t>
+  </si>
+  <si>
+    <t>C016</t>
+  </si>
+  <si>
+    <t>Load a Harmonized CSV File.</t>
+  </si>
+  <si>
+    <t>Follow the Steps 1 - 2 of C012 Test Case.</t>
+  </si>
+  <si>
+    <t>The same as the Steps 1 - 2 of C012 Test Case.</t>
+  </si>
+  <si>
+    <t>Select a harmonized CSV File.</t>
+  </si>
+  <si>
+    <t>The CSV file should be loaded and the variables will be added at the table on the right side..The textareas will be filled according to the harmonized csv file that has been uploaded.</t>
+  </si>
+  <si>
+    <t>The table on the right side shows the variables in each line. Every text areas has been filled accordingly with the info that exists in the csv.</t>
   </si>
 </sst>
 </file>
@@ -835,7 +868,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -861,7 +894,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -872,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -883,7 +916,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -894,18 +927,18 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -914,7 +947,7 @@
     <row r="7" spans="1:3">
       <c r="C7">
         <f>SUM(C2:C6)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -953,10 +986,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -979,25 +1012,25 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="60">
@@ -1005,28 +1038,28 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="60">
@@ -1034,28 +1067,28 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="45">
@@ -1063,28 +1096,28 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1124,10 +1157,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -1147,48 +1180,48 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="90">
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="75">
@@ -1196,48 +1229,48 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="60">
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="75">
@@ -1245,48 +1278,48 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="75">
       <c r="D7" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1299,8 +1332,8 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1326,10 +1359,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -1349,48 +1382,48 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="60">
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30">
@@ -1398,48 +1431,48 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45">
       <c r="D5" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
@@ -1447,68 +1480,68 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="60">
       <c r="D7" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45">
       <c r="D8" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="45">
@@ -1516,88 +1549,88 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30">
       <c r="D10" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60">
       <c r="D11" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="60">
       <c r="D12" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1608,11 +1641,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1638,10 +1671,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -1661,108 +1694,108 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="45">
       <c r="D4" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="75">
       <c r="D5" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
       <c r="D6" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30">
@@ -1770,72 +1803,142 @@
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="75">
       <c r="D8" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75">
+      <c r="D10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60">
+      <c r="D11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="60">
-      <c r="D9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>17</v>
+      <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60">
+      <c r="D12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1844,7 +1947,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1854,7 +1957,7 @@
     <col min="7" max="8" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="30">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1865,10 +1968,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -1885,140 +1988,140 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="47.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="45">
       <c r="D3" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="45">
       <c r="D4" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="45">
       <c r="D5" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="47.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="45">
       <c r="D7" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
